--- a/diclofenac/RawData/metadata.xlsx
+++ b/diclofenac/RawData/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/diclofenac/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81F575F4-7640-421C-8CFF-14D61A208F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="8_{81F575F4-7640-421C-8CFF-14D61A208F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD9FE3FD-1005-43D4-ACFB-492BAA15A0F4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DAF9532C-C150-4B56-A892-7A2B2441DB2F}"/>
   </bookViews>
@@ -35,12 +35,272 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
+  <si>
+    <t>sample-id</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Replicates</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>MBD73</t>
+  </si>
+  <si>
+    <t>Diclofenac</t>
+  </si>
+  <si>
+    <t>MBD74</t>
+  </si>
+  <si>
+    <t>MBD75</t>
+  </si>
+  <si>
+    <t>MBD76</t>
+  </si>
+  <si>
+    <t>MBD77</t>
+  </si>
+  <si>
+    <t>MBD78</t>
+  </si>
+  <si>
+    <t>MBD79</t>
+  </si>
+  <si>
+    <t>MBD80</t>
+  </si>
+  <si>
+    <t>MBD81</t>
+  </si>
+  <si>
+    <t>MBC73D</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>MBC74D</t>
+  </si>
+  <si>
+    <t>MBC75D</t>
+  </si>
+  <si>
+    <t>MBC76D</t>
+  </si>
+  <si>
+    <t>MBC77D</t>
+  </si>
+  <si>
+    <t>MBC78D</t>
+  </si>
+  <si>
+    <t>MBC79D</t>
+  </si>
+  <si>
+    <t>MBC80D</t>
+  </si>
+  <si>
+    <t>MBC81D</t>
+  </si>
+  <si>
+    <t>MBD82</t>
+  </si>
+  <si>
+    <t>MBD83</t>
+  </si>
+  <si>
+    <t>MBD84</t>
+  </si>
+  <si>
+    <t>MBD85</t>
+  </si>
+  <si>
+    <t>MBD86</t>
+  </si>
+  <si>
+    <t>MBD87</t>
+  </si>
+  <si>
+    <t>MBD88</t>
+  </si>
+  <si>
+    <t>MBD89</t>
+  </si>
+  <si>
+    <t>MBD90</t>
+  </si>
+  <si>
+    <t>MBC82D</t>
+  </si>
+  <si>
+    <t>MBC83D</t>
+  </si>
+  <si>
+    <t>MBC84D</t>
+  </si>
+  <si>
+    <t>MBC85D</t>
+  </si>
+  <si>
+    <t>MBC86D</t>
+  </si>
+  <si>
+    <t>MBC87D</t>
+  </si>
+  <si>
+    <t>MBC88D</t>
+  </si>
+  <si>
+    <t>MBC89D</t>
+  </si>
+  <si>
+    <t>MBC90D</t>
+  </si>
+  <si>
+    <t>MBD91</t>
+  </si>
+  <si>
+    <t>MBD92</t>
+  </si>
+  <si>
+    <t>MBD93</t>
+  </si>
+  <si>
+    <t>MBD94</t>
+  </si>
+  <si>
+    <t>MBD95</t>
+  </si>
+  <si>
+    <t>MBD96</t>
+  </si>
+  <si>
+    <t>MBD97</t>
+  </si>
+  <si>
+    <t>MBD98</t>
+  </si>
+  <si>
+    <t>MBD99</t>
+  </si>
+  <si>
+    <t>MBC91D</t>
+  </si>
+  <si>
+    <t>MBC92D</t>
+  </si>
+  <si>
+    <t>MBC93D</t>
+  </si>
+  <si>
+    <t>MBC94D</t>
+  </si>
+  <si>
+    <t>MBC95D</t>
+  </si>
+  <si>
+    <t>MBC96D</t>
+  </si>
+  <si>
+    <t>MBC97D</t>
+  </si>
+  <si>
+    <t>MBC98D</t>
+  </si>
+  <si>
+    <t>MBC99D</t>
+  </si>
+  <si>
+    <t>MBD100</t>
+  </si>
+  <si>
+    <t>MBD101</t>
+  </si>
+  <si>
+    <t>MBD102</t>
+  </si>
+  <si>
+    <t>MBD103</t>
+  </si>
+  <si>
+    <t>MBD104</t>
+  </si>
+  <si>
+    <t>MBD105</t>
+  </si>
+  <si>
+    <t>MBD106</t>
+  </si>
+  <si>
+    <t>MBD107</t>
+  </si>
+  <si>
+    <t>MBD108</t>
+  </si>
+  <si>
+    <t>MBC28A</t>
+  </si>
+  <si>
+    <t>MBC29A</t>
+  </si>
+  <si>
+    <t>MBC30A</t>
+  </si>
+  <si>
+    <t>MBC103D</t>
+  </si>
+  <si>
+    <t>MBC32A</t>
+  </si>
+  <si>
+    <t>MBC105D</t>
+  </si>
+  <si>
+    <t>MBC106D</t>
+  </si>
+  <si>
+    <t>MBC107D</t>
+  </si>
+  <si>
+    <t>MBC108D</t>
+  </si>
+  <si>
+    <t>DM2015</t>
+  </si>
+  <si>
+    <t>DM1980</t>
+  </si>
+  <si>
+    <t>DM1960</t>
+  </si>
+  <si>
+    <t>DM1900</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -382,12 +642,1257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48951168-AB15-4B21-A888-61AFD530B35D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/diclofenac/RawData/metadata.xlsx
+++ b/diclofenac/RawData/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/diclofenac/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{81F575F4-7640-421C-8CFF-14D61A208F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD9FE3FD-1005-43D4-ACFB-492BAA15A0F4}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{81F575F4-7640-421C-8CFF-14D61A208F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{469ED6EB-7B35-4E55-B4FB-A7AA87E2978B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DAF9532C-C150-4B56-A892-7A2B2441DB2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="88">
   <si>
     <t>sample-id</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>DM1900</t>
+  </si>
+  <si>
+    <t>LRV_0_1</t>
+  </si>
+  <si>
+    <t>LRV_8-5_3</t>
+  </si>
+  <si>
+    <t>LRV_8.5_3</t>
+  </si>
+  <si>
+    <t>LRV_12_3</t>
+  </si>
+  <si>
+    <t>LR2_36_1</t>
   </si>
 </sst>
 </file>
@@ -642,15 +657,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48951168-AB15-4B21-A888-61AFD530B35D}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B73"/>
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,1236 +676,1455 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>79</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
         <v>79</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
         <v>79</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
         <v>80</v>
       </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>37</v>
       </c>
       <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
         <v>80</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
         <v>80</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
       <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" t="s">
         <v>80</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
         <v>80</v>
       </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>52</v>
       </c>
       <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
         <v>81</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>53</v>
       </c>
       <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
       <c r="B23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
         <v>81</v>
       </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>57</v>
       </c>
       <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
       <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
         <v>81</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
       <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
         <v>81</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
       <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>60</v>
       </c>
       <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>70</v>
       </c>
       <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>71</v>
       </c>
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
         <v>82</v>
       </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>72</v>
       </c>
       <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>73</v>
       </c>
       <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
         <v>82</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
       <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>74</v>
       </c>
       <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
         <v>82</v>
       </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>75</v>
       </c>
       <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
       <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>76</v>
       </c>
       <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
         <v>82</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
       <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>77</v>
       </c>
       <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
         <v>82</v>
       </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
       <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>78</v>
       </c>
       <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
         <v>82</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
       <c r="D37">
         <v>3</v>
       </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
         <v>79</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
         <v>79</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
         <v>79</v>
       </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
       <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
       <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>10</v>
       </c>
       <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
         <v>79</v>
       </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
       <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
         <v>79</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
       <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>13</v>
       </c>
       <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
         <v>79</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
       <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>14</v>
       </c>
       <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="s">
         <v>79</v>
       </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>25</v>
       </c>
       <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
         <v>80</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>26</v>
       </c>
       <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
         <v>80</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
       <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>27</v>
       </c>
       <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
         <v>80</v>
       </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
         <v>80</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
       <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>29</v>
       </c>
       <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
         <v>80</v>
       </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>30</v>
       </c>
       <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
         <v>80</v>
       </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
       <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
         <v>80</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
       <c r="D53">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>32</v>
       </c>
       <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
         <v>80</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
       <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>33</v>
       </c>
       <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
         <v>80</v>
       </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
       <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>43</v>
       </c>
       <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
         <v>81</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>44</v>
       </c>
       <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
         <v>81</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>45</v>
       </c>
       <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
         <v>81</v>
       </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>46</v>
       </c>
       <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
         <v>81</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
       <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>47</v>
       </c>
       <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
         <v>81</v>
       </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>48</v>
       </c>
       <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
         <v>81</v>
       </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
       <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>49</v>
       </c>
       <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
         <v>81</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
       <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>50</v>
       </c>
       <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
         <v>81</v>
       </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
       <c r="D63">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>51</v>
       </c>
       <c r="B64" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" t="s">
         <v>81</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>61</v>
       </c>
       <c r="B65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" t="s">
         <v>82</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>62</v>
       </c>
       <c r="B66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" t="s">
         <v>82</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
       <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>63</v>
       </c>
       <c r="B67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
         <v>82</v>
       </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>64</v>
       </c>
       <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
         <v>82</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
       <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>65</v>
       </c>
       <c r="B69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" t="s">
         <v>82</v>
       </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>66</v>
       </c>
       <c r="B70" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" t="s">
         <v>82</v>
       </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
       <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>67</v>
       </c>
       <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" t="s">
         <v>82</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
       <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>68</v>
       </c>
       <c r="B72" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" t="s">
         <v>82</v>
       </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
       <c r="D72">
-        <v>3</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>69</v>
       </c>
       <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
         <v>82</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
         <v>6</v>
       </c>
     </row>

--- a/diclofenac/RawData/metadata.xlsx
+++ b/diclofenac/RawData/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/R_PHD_analysis/Chapter3/16S/DNA/diclofenac/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{81F575F4-7640-421C-8CFF-14D61A208F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{469ED6EB-7B35-4E55-B4FB-A7AA87E2978B}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="8_{81F575F4-7640-421C-8CFF-14D61A208F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47E8583F-0EDB-46AE-B892-BA441610B83B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DAF9532C-C150-4B56-A892-7A2B2441DB2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="90">
   <si>
     <t>sample-id</t>
   </si>
@@ -56,9 +56,6 @@
     <t>MBD73</t>
   </si>
   <si>
-    <t>Diclofenac</t>
-  </si>
-  <si>
     <t>MBD74</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>MBC73D</t>
   </si>
   <si>
-    <t>control</t>
-  </si>
-  <si>
     <t>MBC74D</t>
   </si>
   <si>
@@ -293,13 +287,25 @@
     <t>LRV_8-5_3</t>
   </si>
   <si>
-    <t>LRV_8.5_3</t>
-  </si>
-  <si>
     <t>LRV_12_3</t>
   </si>
   <si>
     <t>LR2_36_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+      <selection activeCell="F73" sqref="A1:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,722 +696,722 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" t="s">
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" t="s">
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" t="s">
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>2</v>
+      <c r="E5" t="s">
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>2</v>
+      <c r="E6" t="s">
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7">
-        <v>2</v>
+      <c r="E7" t="s">
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="E8" t="s">
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>3</v>
+      <c r="E9" t="s">
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-      <c r="E10">
-        <v>3</v>
+      <c r="E10" t="s">
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" t="s">
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" t="s">
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" t="s">
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>2</v>
+      <c r="E14" t="s">
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>2</v>
+      <c r="E15" t="s">
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16">
-        <v>2</v>
+      <c r="E16" t="s">
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>3</v>
+      <c r="E17" t="s">
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>3</v>
+      <c r="E18" t="s">
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19">
-        <v>3</v>
+      <c r="E19" t="s">
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" t="s">
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" t="s">
+        <v>87</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" t="s">
+        <v>87</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23">
-        <v>2</v>
+      <c r="E23" t="s">
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24">
-        <v>2</v>
+      <c r="E24" t="s">
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25">
-        <v>2</v>
+      <c r="E25" t="s">
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
-        <v>3</v>
+      <c r="E26" t="s">
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27">
-        <v>3</v>
+      <c r="E27" t="s">
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>3</v>
+      <c r="E28" t="s">
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" t="s">
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="E31" t="s">
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <v>2</v>
+      <c r="E32" t="s">
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33">
-        <v>2</v>
+      <c r="E33" t="s">
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>2</v>
+      <c r="E34" t="s">
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
-        <v>3</v>
+      <c r="E35" t="s">
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
-      <c r="E36">
-        <v>3</v>
+      <c r="E36" t="s">
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
-      <c r="E37">
-        <v>3</v>
+      <c r="E37" t="s">
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1413,719 +1419,719 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
-      <c r="E39">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>87</v>
       </c>
       <c r="F39" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>2</v>
+      <c r="E41" t="s">
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42">
-        <v>2</v>
+      <c r="E42" t="s">
+        <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>3</v>
       </c>
-      <c r="E43">
-        <v>2</v>
+      <c r="E43" t="s">
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44">
-        <v>3</v>
+      <c r="E44" t="s">
+        <v>89</v>
       </c>
       <c r="F44" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45">
-        <v>3</v>
+      <c r="E45" t="s">
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46">
-        <v>3</v>
+      <c r="E46" t="s">
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="E47" t="s">
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
-      <c r="E48">
-        <v>1</v>
+      <c r="E48" t="s">
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50">
-        <v>2</v>
+      <c r="E50" t="s">
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51">
-        <v>2</v>
+      <c r="E51" t="s">
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52">
-        <v>2</v>
+      <c r="E52" t="s">
+        <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53">
-        <v>3</v>
+      <c r="E53" t="s">
+        <v>89</v>
       </c>
       <c r="F53" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54">
-        <v>3</v>
+      <c r="E54" t="s">
+        <v>89</v>
       </c>
       <c r="F54" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55">
-        <v>3</v>
+      <c r="E55" t="s">
+        <v>89</v>
       </c>
       <c r="F55" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56">
-        <v>1</v>
+      <c r="E56" t="s">
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57">
-        <v>1</v>
+      <c r="E57" t="s">
+        <v>87</v>
       </c>
       <c r="F57" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="E58">
-        <v>1</v>
+      <c r="E58" t="s">
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59">
-        <v>2</v>
+      <c r="E59" t="s">
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
-      <c r="E60">
-        <v>2</v>
+      <c r="E60" t="s">
+        <v>88</v>
       </c>
       <c r="F60" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
-      <c r="E61">
-        <v>2</v>
+      <c r="E61" t="s">
+        <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
-      <c r="E62">
-        <v>3</v>
+      <c r="E62" t="s">
+        <v>89</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63">
-        <v>3</v>
+      <c r="E63" t="s">
+        <v>89</v>
       </c>
       <c r="F63" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="E64">
-        <v>3</v>
+      <c r="E64" t="s">
+        <v>89</v>
       </c>
       <c r="F64" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65">
-        <v>1</v>
+      <c r="E65" t="s">
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66">
-        <v>1</v>
+      <c r="E66" t="s">
+        <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="E67">
-        <v>1</v>
+      <c r="E67" t="s">
+        <v>87</v>
       </c>
       <c r="F67" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68">
-        <v>2</v>
+      <c r="E68" t="s">
+        <v>88</v>
       </c>
       <c r="F68" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
-      <c r="E69">
-        <v>2</v>
+      <c r="E69" t="s">
+        <v>88</v>
       </c>
       <c r="F69" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D70">
         <v>3</v>
       </c>
-      <c r="E70">
-        <v>2</v>
+      <c r="E70" t="s">
+        <v>88</v>
       </c>
       <c r="F70" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71">
-        <v>3</v>
+      <c r="E71" t="s">
+        <v>89</v>
       </c>
       <c r="F71" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
-      <c r="E72">
-        <v>3</v>
+      <c r="E72" t="s">
+        <v>89</v>
       </c>
       <c r="F72" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73">
-        <v>3</v>
+      <c r="E73" t="s">
+        <v>89</v>
       </c>
       <c r="F73" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
